--- a/db/AiCity-71-番茄村.xlsx
+++ b/db/AiCity-71-番茄村.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415BA266-4A13-2841-86F1-460A37785F5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6570680F-1821-FB45-BB6F-6F86EC205B4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19400" yWindow="3300" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +169,6 @@
     <t>037</t>
   </si>
   <si>
-    <t>美式咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>番茄村</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早餐系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起司蛋/ 陽光加州蔬果/ ＊黑胡椒豬排/ 勇士牛肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起司蛋: 45,  陽光加州蔬果:49, ＊黑胡椒豬排: 55, 勇士牛肉: 65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,18 +185,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>起司蛋/ *陽光加州蔬果/ 洋蔥鮪魚/ ＊黑胡椒豬排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>果醬番茄吐司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>薄片 / 厚片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起司蛋: 45, *陽光加州蔬果: 49, 洋蔥鮪魚: 49, ＊黑胡椒豬排: 55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,18 +201,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>珍珠堡/ 麥香雞堡/ 黑胡椒豬排堡/ 凱薩鮮脆雞腿堡/ 紐約客牛肉堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>現烤吐司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火腿蛋/ ＊培根蛋/ 豬排蛋/ ＊雙喜總匯蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火腿蛋: 35, ＊培根蛋: 40, 豬排蛋: 50, ＊雙喜總匯蛋: 50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>＊起司歐姆蛋/  鮪魚歐姆蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>＊起司歐姆蛋: 40,  鮪魚歐姆蛋: 45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,14 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>壽喜燒牛肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊豬排潛艇堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>＊豬排潛艇堡: 65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原味/ 玉米/ 起司/ ＊蔬菜/ 鮪魚/ 培根/ ＊豬排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原味:25, 玉米:35, 起司:35, ＊蔬菜:35, 鮪魚:40, 培根:40, ＊豬排:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,66 +257,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豬排總匯盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快樂小熊盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*豬排丹麥吐司盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美式鬆餅盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>培根丹麥總匯盤餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑胡椒肉醬麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊義式番茄麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鍋燒意麵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原味意麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙茶意麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鐵板義大利麵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,70 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紅醬蘑菇蛋包飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白醬哈利燉飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起司白醬培根義大利麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅醬雞肉義大利麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 40, 大 45 (冰/熱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 50, 大 55 (冰/熱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊拿鐵咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小 20, 中 25, 大 30 (冰/熱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊養生薏仁漿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非基因改造豆漿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鮮榨番茄汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜蜂番茄汁: 75 (冰）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皇家咖啡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,67 +281,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿薩姆紅茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 25, 大 30 (冰/熱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊翠玉四季春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 30, 大 35 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 35, 大 40 (冰/熱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊阿薩姆奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜蜂百香綠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 45, 大 50 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翡翠檸檬綠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊黃金香橙綠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＊翡翠香橙綠茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 50, 大 60 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 40, 大 50 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中 55, 大 65 (冰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金桔翡翠檸檬果汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃金香橙果汁</t>
+    <t>豬排總匯盤餐: 79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快樂小熊盤餐: 79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*豬排丹麥吐司盤餐: 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式鬆餅盤餐: 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根丹麥總匯盤餐: 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡椒肉醬麵: 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊義式番茄麵: 70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味意麵: 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙茶意麵: 69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅醬蘑菇蛋包飯: 129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白醬哈利燉飯: 139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起司白醬培根義大利麵: 139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅醬雞肉義大利麵: 149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式咖啡: 中 40, 大 45 (冰/熱）</t>
+  </si>
+  <si>
+    <t>＊拿鐵咖啡: 中 50, 大 55 (冰/熱）</t>
+  </si>
+  <si>
+    <t>＊養生薏仁漿: 小 20, 中 25, 大 30 (冰/熱)</t>
+  </si>
+  <si>
+    <t>非基因改造豆漿: 小 20, 中 25, 大 30 (冰/熱)</t>
+  </si>
+  <si>
+    <t>鮮榨番茄汁: 蜜蜂番茄汁: 75 (冰）</t>
+  </si>
+  <si>
+    <t>阿薩姆紅茶: 中 25, 大 30 (冰/熱)</t>
+  </si>
+  <si>
+    <t>＊翠玉四季春: 中 30, 大 35 (冰)</t>
+  </si>
+  <si>
+    <t>＊阿薩姆奶茶: 中 35, 大 40 (冰/熱)</t>
+  </si>
+  <si>
+    <t>蜜蜂百香綠茶: 中 45, 大 50 (冰)</t>
+  </si>
+  <si>
+    <t>翡翠檸檬綠茶: 中 45, 大 50 (冰)</t>
+  </si>
+  <si>
+    <t>＊黃金香橙綠茶: 中 50, 大 60 (冰)</t>
+  </si>
+  <si>
+    <t>＊翡翠香橙綠茶: 中 40, 大 50 (冰)</t>
+  </si>
+  <si>
+    <t>金桔翡翠檸檬果汁: 中 45, 大 50 (冰)</t>
+  </si>
+  <si>
+    <t>黃金香橙果汁: 中 55, 大 65 (冰)</t>
+  </si>
+  <si>
+    <t>飲料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,14 +412,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,7 +444,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,23 +762,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618237F-7E0C-354D-96CA-9ABDB6B60914}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="59" style="2" customWidth="1"/>
-    <col min="6" max="6" width="67" style="2" customWidth="1"/>
+    <col min="5" max="5" width="67" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -920,678 +787,646 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="2" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="2" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="2" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-71-番茄村.xlsx
+++ b/db/AiCity-71-番茄村.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEA30FA-6994-A443-B5F6-1645551BD122}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE80926-C022-CE4E-B134-CC5171169753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="21800" windowHeight="26820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20260" yWindow="5800" windowWidth="50040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="232">
   <si>
     <t>id</t>
   </si>
@@ -1527,6 +1527,2598 @@
   </si>
   <si>
     <t>悠閒小點</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘿蔔糕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式鬆餅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯條</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米濃湯-小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>玉米濃湯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-中</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯餅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞塊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松葉薯球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古早味鹽酥雞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷包蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-801.jpg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-802.jpg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-803.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-804.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-805.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-806.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-807.jpg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-808.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-809.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-810.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>早午餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕食盤餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵板義大利麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍋燒意麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>異國米食</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>義大利麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-901.jpg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-902.jpg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-903.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-904.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-905.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-906.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-907.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-908.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-909.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-910.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-911.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-912.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-913.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>豬排總匯盤餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>快樂小熊盤餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬排丹麥吐司盤餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式鬆餅盤餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根丹麥總匯盤餐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡椒肉醬麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>義式番茄麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味意麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙茶意麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅醬蘑菇蛋包飯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白醬哈利燉飯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>起司白醬培根義大利麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅醬雞肉義大利麵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡椒肉醬麵+蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>義式番茄麵+蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家咖啡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐養生飲品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣水果茶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-953-番茄村-921.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-922.jpg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-953-番茄村-923.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-924.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>fig/AiCity-953-番茄村-925.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-926.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>fig/AiCity-953-番茄村-927.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-928.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>fig/AiCity-953-番茄村-929.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-930.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>fig/AiCity-953-番茄村-931.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-932.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>fig/AiCity-953-番茄村-933.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-953-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>番茄村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-934.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美式咖啡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美式咖啡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美式咖啡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美式咖啡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿鐵咖啡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿鐵咖啡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿鐵咖啡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿鐵咖啡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮榨番茄汁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蜜蜂番茄汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>養生薏仁漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>養生薏仁漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>養生薏仁漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>養生薏仁漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>養生薏仁漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>養生薏仁漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非基因改造豆漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非基因改造豆漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非基因改造豆漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非基因改造豆漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非基因改造豆漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非基因改造豆漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿薩姆紅茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿薩姆紅茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿薩姆紅茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿薩姆紅茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翠玉四季春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翠玉四季春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿薩姆奶茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿薩姆奶茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿薩姆奶茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿薩姆奶茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-熱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蜜蜂百香綠茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蜜蜂百香綠茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翡翠檸檬綠茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翡翠檸檬綠茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃金香橙綠茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃金香橙綠茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翡翠香橙綠茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>翡翠香橙綠茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>金桔翡翠檸檬果汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>金桔翡翠檸檬果汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃金香橙果汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃金香橙果汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大-冰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>養生飲品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1535,7 +4127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1620,7 +4212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1640,11 +4232,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1947,20 +4542,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="9"/>
     <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="9"/>
     <col min="5" max="5" width="8.83203125" style="1"/>
     <col min="6" max="6" width="32.33203125" style="1" customWidth="1"/>
@@ -1989,10 +4584,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2307,6 +4902,9 @@
       <c r="A15" s="9">
         <v>202</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
@@ -2330,6 +4928,9 @@
       <c r="A16" s="9">
         <v>202</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
@@ -2353,6 +4954,9 @@
       <c r="A17" s="9">
         <v>202</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
@@ -2776,6 +5380,9 @@
       <c r="A35" s="9">
         <v>402</v>
       </c>
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,6 +5406,9 @@
       <c r="A36" s="9">
         <v>402</v>
       </c>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C36" s="11" t="s">
         <v>49</v>
       </c>
@@ -2822,6 +5432,9 @@
       <c r="A37" s="9">
         <v>402</v>
       </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C37" s="11" t="s">
         <v>64</v>
       </c>
@@ -2983,6 +5596,9 @@
       <c r="A44" s="9">
         <v>405</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>47</v>
       </c>
@@ -3006,6 +5622,9 @@
       <c r="A45" s="9">
         <v>405</v>
       </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
@@ -3029,6 +5648,9 @@
       <c r="A46" s="9">
         <v>405</v>
       </c>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C46" s="11" t="s">
         <v>53</v>
       </c>
@@ -3559,6 +6181,9 @@
       <c r="A68" s="9">
         <v>703.7</v>
       </c>
+      <c r="B68" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>95</v>
       </c>
@@ -3582,6 +6207,9 @@
       <c r="A69" s="9">
         <v>704.1</v>
       </c>
+      <c r="B69" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C69" s="11" t="s">
         <v>103</v>
       </c>
@@ -3697,6 +6325,9 @@
       <c r="A74" s="9">
         <v>707</v>
       </c>
+      <c r="B74" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>98</v>
       </c>
@@ -3720,6 +6351,9 @@
       <c r="A75" s="9">
         <v>707</v>
       </c>
+      <c r="B75" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C75" s="11" t="s">
         <v>106</v>
       </c>
@@ -3740,11 +6374,1668 @@
       </c>
     </row>
     <row r="76" spans="1:8">
+      <c r="A76" s="9">
+        <v>801</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="9">
+        <v>10</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="9">
+        <v>802</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="9">
+        <v>20</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="9">
+        <v>803</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="9">
+        <v>35</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="9">
+        <v>804</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="9">
+        <v>35</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="9">
+        <v>805</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="9">
+        <v>35</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="9">
+        <v>806</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="9">
+        <v>30</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="9">
+        <v>806</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="9">
+        <v>40</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="9">
+        <v>807</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="9">
+        <v>35</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="9">
+        <v>808</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="9">
+        <v>40</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="9">
+        <v>809</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="9">
+        <v>45</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="9">
+        <v>810</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="9">
+        <v>49</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="9">
+        <v>901</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="9">
+        <v>79</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="9">
+        <v>902</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88" s="9">
+        <v>79</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="9">
+        <v>903</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="9">
+        <v>99</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="9">
+        <v>904</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" s="9">
+        <v>99</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="9">
+        <v>905</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" s="9">
+        <v>99</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="9">
+        <v>906</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="9">
+        <v>65</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="9">
+        <v>906</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" s="9">
+        <v>75</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="9">
+        <v>907</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="9">
+        <v>70</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="9">
+        <v>907</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="9">
+        <v>80</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="9">
+        <v>908</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" s="9">
+        <v>65</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="9">
+        <v>909</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="9">
+        <v>69</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="9">
+        <v>910</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="9">
+        <v>129</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="9">
+        <v>911</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="9">
+        <v>139</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="9">
+        <v>912</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="9">
+        <v>139</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="9">
+        <v>913</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="9">
+        <v>149</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="9">
+        <v>1001</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="9">
+        <v>40</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="9">
+        <v>1001</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="9">
+        <v>40</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="9">
+        <v>1001</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="9">
+        <v>45</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="9">
+        <v>1001</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" s="9">
+        <v>45</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="9">
+        <v>1002</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" s="9">
+        <v>50</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="9">
+        <v>1002</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="9">
+        <v>50</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="9">
+        <v>1002</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108" s="9">
+        <v>55</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="9">
+        <v>1002</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109" s="9">
+        <v>55</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="9">
+        <v>1003</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" s="9">
+        <v>20</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="9">
+        <v>1003</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" s="9">
+        <v>20</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="9">
+        <v>1003</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D112" s="9">
+        <v>25</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="9">
+        <v>1003</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" s="9">
+        <v>25</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="9">
+        <v>1003</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" s="9">
+        <v>30</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="9">
+        <v>1003</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" s="9">
+        <v>30</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="9">
+        <v>1004</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" s="9">
+        <v>20</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="9">
+        <v>1004</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117" s="9">
+        <v>20</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="9">
+        <v>1004</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="9">
+        <v>25</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="9">
+        <v>1004</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D119" s="9">
+        <v>25</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="9">
+        <v>1004</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D120" s="9">
+        <v>30</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="9">
+        <v>1004</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" s="9">
+        <v>30</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="9">
+        <v>1005</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122" s="9">
+        <v>75</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="9">
+        <v>1006</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123" s="9">
+        <v>25</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="9">
+        <v>1006</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D124" s="9">
+        <v>25</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="9">
+        <v>1006</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D125" s="9">
+        <v>30</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="9">
+        <v>1006</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D126" s="9">
+        <v>30</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="9">
+        <v>1007</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D127" s="9">
+        <v>30</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="9">
+        <v>1007</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" s="9">
+        <v>35</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="9">
+        <v>1008</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D129" s="9">
+        <v>35</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="9">
+        <v>1008</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D130" s="9">
+        <v>35</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="9">
+        <v>1008</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D131" s="9">
+        <v>40</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="9">
+        <v>1008</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D132" s="9">
+        <v>40</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="9">
+        <v>1009</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D133" s="9">
+        <v>45</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="9">
+        <v>1009</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D134" s="9">
+        <v>50</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="9">
+        <v>1010</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D135" s="9">
+        <v>45</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="9">
+        <v>1010</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" s="9">
+        <v>50</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="9">
+        <v>1011</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D137" s="9">
+        <v>50</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="9">
+        <v>1011</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D138" s="9">
+        <v>60</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="9">
+        <v>1012</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" s="9">
+        <v>40</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="9">
+        <v>1012</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D140" s="9">
+        <v>50</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="9">
+        <v>1013</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D141" s="9">
+        <v>45</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="9">
+        <v>1013</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D142" s="9">
+        <v>50</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="9">
+        <v>1014</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D143" s="9">
+        <v>55</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="9">
+        <v>1014</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D144" s="9">
+        <v>65</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-71-番茄村.xlsx
+++ b/db/AiCity-71-番茄村.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE80926-C022-CE4E-B134-CC5171169753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478004C7-AE4C-9B44-96B3-95F3C3B7B026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20260" yWindow="5800" windowWidth="50040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24440" yWindow="3140" windowWidth="50040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -518,28 +518,6 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>麥香雞堡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>+蛋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>黑胡椒豬排堡</t>
     </r>
     <r>
@@ -4119,6 +4097,46 @@
   </si>
   <si>
     <t>養生飲品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>麥香雞堡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蛋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠堡+蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠堡+起司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4545,10 +4563,10 @@
   <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4584,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -4610,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4633,7 +4651,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4656,7 +4674,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4679,7 +4697,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4702,7 +4720,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4728,7 +4746,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4754,7 +4772,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4780,7 +4798,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4803,7 +4821,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4826,7 +4844,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4849,7 +4867,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4872,7 +4890,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4895,7 +4913,7 @@
         <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4921,7 +4939,7 @@
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4947,7 +4965,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4973,7 +4991,7 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4996,7 +5014,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5019,7 +5037,7 @@
         <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5042,7 +5060,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5068,7 +5086,7 @@
         <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5094,7 +5112,7 @@
         <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5120,7 +5138,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5143,7 +5161,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5166,7 +5184,7 @@
         <v>32</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5189,7 +5207,7 @@
         <v>32</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5212,7 +5230,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5235,7 +5253,7 @@
         <v>32</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5258,7 +5276,7 @@
         <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5281,7 +5299,7 @@
         <v>32</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5304,7 +5322,7 @@
         <v>32</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5321,13 +5339,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5335,7 +5353,7 @@
         <v>401</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="D33" s="10">
         <v>50</v>
@@ -5344,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5358,7 +5376,7 @@
         <v>401</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="D34" s="9">
         <v>50</v>
@@ -5367,13 +5385,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5393,13 +5411,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5410,7 +5428,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="D36" s="9">
         <v>55</v>
@@ -5419,13 +5437,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5436,7 +5454,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="9">
         <v>55</v>
@@ -5445,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5468,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5482,7 +5500,7 @@
         <v>403</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="9">
         <v>65</v>
@@ -5491,13 +5509,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5505,7 +5523,7 @@
         <v>403</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="9">
         <v>65</v>
@@ -5514,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5537,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5551,7 +5569,7 @@
         <v>404</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="9">
         <v>80</v>
@@ -5560,13 +5578,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5574,7 +5592,7 @@
         <v>404</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="9">
         <v>80</v>
@@ -5583,13 +5601,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5609,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5626,7 +5644,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="9">
         <v>80</v>
@@ -5635,13 +5653,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5652,7 +5670,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="9">
         <v>80</v>
@@ -5661,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5675,7 +5693,7 @@
         <v>501</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="9">
         <v>35</v>
@@ -5684,13 +5702,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5698,7 +5716,7 @@
         <v>501</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="9">
         <v>45</v>
@@ -5707,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5724,7 +5742,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="9">
         <v>40</v>
@@ -5733,13 +5751,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5750,7 +5768,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="9">
         <v>50</v>
@@ -5759,13 +5777,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5773,7 +5791,7 @@
         <v>503</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="9">
         <v>50</v>
@@ -5782,13 +5800,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5796,7 +5814,7 @@
         <v>503</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="9">
         <v>60</v>
@@ -5805,13 +5823,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5822,7 +5840,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="9">
         <v>50</v>
@@ -5831,13 +5849,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5848,7 +5866,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" s="9">
         <v>60</v>
@@ -5857,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5874,7 +5892,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="9">
         <v>40</v>
@@ -5883,13 +5901,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5897,7 +5915,7 @@
         <v>602</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56" s="9">
         <v>45</v>
@@ -5906,13 +5924,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5923,7 +5941,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="9">
         <v>65</v>
@@ -5932,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5949,7 +5967,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="9">
         <v>75</v>
@@ -5958,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5975,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="9">
         <v>75</v>
@@ -5984,13 +6002,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5998,7 +6016,7 @@
         <v>604</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="9">
         <v>70</v>
@@ -6007,13 +6025,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6021,7 +6039,7 @@
         <v>604</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" s="9">
         <v>80</v>
@@ -6030,13 +6048,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6044,7 +6062,7 @@
         <v>701</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D62" s="9">
         <v>25</v>
@@ -6053,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6067,7 +6085,7 @@
         <v>701</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" s="9">
         <v>35</v>
@@ -6076,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6090,7 +6108,7 @@
         <v>702</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="9">
         <v>35</v>
@@ -6099,13 +6117,13 @@
         <v>0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6113,7 +6131,7 @@
         <v>702</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" s="9">
         <v>45</v>
@@ -6122,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6136,7 +6154,7 @@
         <v>702.5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66" s="9">
         <v>35</v>
@@ -6145,13 +6163,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6159,7 +6177,7 @@
         <v>702.9</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67" s="9">
         <v>45</v>
@@ -6168,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6185,7 +6203,7 @@
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" s="9">
         <v>35</v>
@@ -6194,13 +6212,13 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6211,7 +6229,7 @@
         <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" s="9">
         <v>45</v>
@@ -6220,13 +6238,13 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6234,7 +6252,7 @@
         <v>704.5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="9">
         <v>40</v>
@@ -6243,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6257,7 +6275,7 @@
         <v>704.9</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="9">
         <v>50</v>
@@ -6266,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6280,7 +6298,7 @@
         <v>706</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D72" s="9">
         <v>40</v>
@@ -6289,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6303,7 +6321,7 @@
         <v>706</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="9">
         <v>50</v>
@@ -6312,13 +6330,13 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6329,7 +6347,7 @@
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D74" s="9">
         <v>50</v>
@@ -6338,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6355,7 +6373,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" s="9">
         <v>60</v>
@@ -6364,13 +6382,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6378,7 +6396,7 @@
         <v>801</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D76" s="9">
         <v>10</v>
@@ -6387,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6401,7 +6419,7 @@
         <v>802</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77" s="9">
         <v>20</v>
@@ -6410,13 +6428,13 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6424,7 +6442,7 @@
         <v>803</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D78" s="9">
         <v>35</v>
@@ -6433,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6447,7 +6465,7 @@
         <v>804</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D79" s="9">
         <v>35</v>
@@ -6456,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6470,7 +6488,7 @@
         <v>805</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D80" s="9">
         <v>35</v>
@@ -6479,13 +6497,13 @@
         <v>0</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6496,7 +6514,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" s="9">
         <v>30</v>
@@ -6505,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6522,7 +6540,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D82" s="9">
         <v>40</v>
@@ -6531,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6545,7 +6563,7 @@
         <v>807</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" s="9">
         <v>35</v>
@@ -6554,13 +6572,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6568,7 +6586,7 @@
         <v>808</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D84" s="9">
         <v>40</v>
@@ -6577,13 +6595,13 @@
         <v>0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6594,7 +6612,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D85" s="9">
         <v>45</v>
@@ -6603,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6617,7 +6635,7 @@
         <v>810</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D86" s="9">
         <v>49</v>
@@ -6626,13 +6644,13 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6640,7 +6658,7 @@
         <v>901</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D87" s="9">
         <v>79</v>
@@ -6649,13 +6667,13 @@
         <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6663,7 +6681,7 @@
         <v>902</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D88" s="9">
         <v>79</v>
@@ -6672,13 +6690,13 @@
         <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6689,7 +6707,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D89" s="9">
         <v>99</v>
@@ -6698,13 +6716,13 @@
         <v>0</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6712,7 +6730,7 @@
         <v>904</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D90" s="9">
         <v>99</v>
@@ -6721,13 +6739,13 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6735,7 +6753,7 @@
         <v>905</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D91" s="9">
         <v>99</v>
@@ -6744,13 +6762,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6758,7 +6776,7 @@
         <v>906</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D92" s="9">
         <v>65</v>
@@ -6767,13 +6785,13 @@
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6781,7 +6799,7 @@
         <v>906</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D93" s="9">
         <v>75</v>
@@ -6790,13 +6808,13 @@
         <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6807,7 +6825,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D94" s="9">
         <v>70</v>
@@ -6816,13 +6834,13 @@
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6833,7 +6851,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D95" s="9">
         <v>80</v>
@@ -6842,13 +6860,13 @@
         <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6856,7 +6874,7 @@
         <v>908</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D96" s="9">
         <v>65</v>
@@ -6865,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6879,7 +6897,7 @@
         <v>909</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" s="9">
         <v>69</v>
@@ -6888,13 +6906,13 @@
         <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6902,7 +6920,7 @@
         <v>910</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D98" s="9">
         <v>129</v>
@@ -6911,13 +6929,13 @@
         <v>0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6925,7 +6943,7 @@
         <v>911</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D99" s="9">
         <v>139</v>
@@ -6934,13 +6952,13 @@
         <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6948,7 +6966,7 @@
         <v>912</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D100" s="9">
         <v>139</v>
@@ -6957,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6971,7 +6989,7 @@
         <v>913</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D101" s="9">
         <v>149</v>
@@ -6980,13 +6998,13 @@
         <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6994,7 +7012,7 @@
         <v>1001</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D102" s="9">
         <v>40</v>
@@ -7003,13 +7021,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7017,7 +7035,7 @@
         <v>1001</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D103" s="9">
         <v>40</v>
@@ -7026,13 +7044,13 @@
         <v>0</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7040,7 +7058,7 @@
         <v>1001</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D104" s="9">
         <v>45</v>
@@ -7049,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -7063,7 +7081,7 @@
         <v>1001</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D105" s="9">
         <v>45</v>
@@ -7072,13 +7090,13 @@
         <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -7089,7 +7107,7 @@
         <v>10</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D106" s="9">
         <v>50</v>
@@ -7098,13 +7116,13 @@
         <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7115,7 +7133,7 @@
         <v>10</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D107" s="9">
         <v>50</v>
@@ -7124,13 +7142,13 @@
         <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7141,7 +7159,7 @@
         <v>10</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D108" s="9">
         <v>55</v>
@@ -7150,13 +7168,13 @@
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7167,7 +7185,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D109" s="9">
         <v>55</v>
@@ -7176,13 +7194,13 @@
         <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7193,7 +7211,7 @@
         <v>10</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D110" s="9">
         <v>20</v>
@@ -7202,13 +7220,13 @@
         <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7219,7 +7237,7 @@
         <v>10</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D111" s="9">
         <v>20</v>
@@ -7228,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7245,7 +7263,7 @@
         <v>10</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D112" s="9">
         <v>25</v>
@@ -7254,13 +7272,13 @@
         <v>0</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7271,7 +7289,7 @@
         <v>10</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D113" s="9">
         <v>25</v>
@@ -7280,13 +7298,13 @@
         <v>0</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7297,7 +7315,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D114" s="9">
         <v>30</v>
@@ -7306,13 +7324,13 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7323,7 +7341,7 @@
         <v>10</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D115" s="9">
         <v>30</v>
@@ -7332,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7346,7 +7364,7 @@
         <v>1004</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D116" s="9">
         <v>20</v>
@@ -7355,13 +7373,13 @@
         <v>0</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7369,7 +7387,7 @@
         <v>1004</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D117" s="9">
         <v>20</v>
@@ -7378,13 +7396,13 @@
         <v>0</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7392,7 +7410,7 @@
         <v>1004</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D118" s="9">
         <v>25</v>
@@ -7401,13 +7419,13 @@
         <v>0</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7415,7 +7433,7 @@
         <v>1004</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D119" s="9">
         <v>25</v>
@@ -7424,13 +7442,13 @@
         <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7438,7 +7456,7 @@
         <v>1004</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D120" s="9">
         <v>30</v>
@@ -7447,13 +7465,13 @@
         <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7461,7 +7479,7 @@
         <v>1004</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D121" s="9">
         <v>30</v>
@@ -7470,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7484,7 +7502,7 @@
         <v>1005</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D122" s="9">
         <v>75</v>
@@ -7493,13 +7511,13 @@
         <v>0</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7507,7 +7525,7 @@
         <v>1006</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D123" s="9">
         <v>25</v>
@@ -7516,13 +7534,13 @@
         <v>0</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7530,7 +7548,7 @@
         <v>1006</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D124" s="9">
         <v>25</v>
@@ -7539,13 +7557,13 @@
         <v>0</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7553,7 +7571,7 @@
         <v>1006</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D125" s="9">
         <v>30</v>
@@ -7562,13 +7580,13 @@
         <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7576,7 +7594,7 @@
         <v>1006</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D126" s="9">
         <v>30</v>
@@ -7585,13 +7603,13 @@
         <v>0</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7602,7 +7620,7 @@
         <v>10</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D127" s="9">
         <v>30</v>
@@ -7611,13 +7629,13 @@
         <v>0</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7628,7 +7646,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D128" s="9">
         <v>35</v>
@@ -7637,13 +7655,13 @@
         <v>0</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7654,7 +7672,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D129" s="9">
         <v>35</v>
@@ -7663,13 +7681,13 @@
         <v>0</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7680,7 +7698,7 @@
         <v>10</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D130" s="9">
         <v>35</v>
@@ -7689,13 +7707,13 @@
         <v>0</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7706,7 +7724,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D131" s="9">
         <v>40</v>
@@ -7715,13 +7733,13 @@
         <v>0</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7732,7 +7750,7 @@
         <v>10</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D132" s="9">
         <v>40</v>
@@ -7741,13 +7759,13 @@
         <v>0</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7755,7 +7773,7 @@
         <v>1009</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D133" s="9">
         <v>45</v>
@@ -7764,13 +7782,13 @@
         <v>0</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7778,7 +7796,7 @@
         <v>1009</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D134" s="9">
         <v>50</v>
@@ -7787,13 +7805,13 @@
         <v>0</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7801,7 +7819,7 @@
         <v>1010</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D135" s="9">
         <v>45</v>
@@ -7810,13 +7828,13 @@
         <v>0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7824,7 +7842,7 @@
         <v>1010</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D136" s="9">
         <v>50</v>
@@ -7833,13 +7851,13 @@
         <v>0</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7850,7 +7868,7 @@
         <v>10</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D137" s="9">
         <v>50</v>
@@ -7859,13 +7877,13 @@
         <v>0</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7876,7 +7894,7 @@
         <v>10</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D138" s="9">
         <v>60</v>
@@ -7885,13 +7903,13 @@
         <v>0</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7902,7 +7920,7 @@
         <v>10</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D139" s="9">
         <v>40</v>
@@ -7911,13 +7929,13 @@
         <v>0</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7928,7 +7946,7 @@
         <v>10</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D140" s="9">
         <v>50</v>
@@ -7937,13 +7955,13 @@
         <v>0</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7951,7 +7969,7 @@
         <v>1013</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D141" s="9">
         <v>45</v>
@@ -7960,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7974,7 +7992,7 @@
         <v>1013</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D142" s="9">
         <v>50</v>
@@ -7983,13 +8001,13 @@
         <v>0</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7997,7 +8015,7 @@
         <v>1014</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D143" s="9">
         <v>55</v>
@@ -8006,13 +8024,13 @@
         <v>0</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8020,7 +8038,7 @@
         <v>1014</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D144" s="9">
         <v>65</v>
@@ -8029,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
